--- a/biology/Zoologie/Farancia_abacura/Farancia_abacura.xlsx
+++ b/biology/Zoologie/Farancia_abacura/Farancia_abacura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Farancia abacura  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farancia abacura  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans l'est du Texas, dans l'Arkansas, en Louisiane, dans le Mississippi, dans l'Alabama, en Géorgie, en Floride, en Caroline du Sud, en Caroline du Nord, dans l'est de la Virginie, dans l'ouest du Tennessee, dans le sud-est du Missouri, dans le sud de l'Illinois et dans l'Ouest du Kentucky[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans l'est du Texas, dans l'Arkansas, en Louisiane, dans le Mississippi, dans l'Alabama, en Géorgie, en Floride, en Caroline du Sud, en Caroline du Nord, dans l'est de la Virginie, dans l'ouest du Tennessee, dans le sud-est du Missouri, dans le sud de l'Illinois et dans l'Ouest du Kentucky.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Farancia abacura abacura (Holbrook, 1836)
 Farancia abacura reinwardtii (Schlegel, 1837)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Holbrook, 1836 : North American herpetology, or, A description of the reptiles inhabiting the United States, vol. 1, p. 1-120 (texte intégral).
 Schlegel, 1837 : Essai sur la physionomie des serpens, La Haye, J. Kips, J. HZ. et W. P. van Stockum, vol. 1 (texte intégral) et vol. 2 (texte intégral).</t>
